--- a/テスト仕様書.xlsx
+++ b/テスト仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81804\Documents\git\practice\internal-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7075F5E8-EABC-47EA-B727-A9D6115377A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605032EC-4B52-4421-B3B5-BA92A3CBD073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="360" windowWidth="15870" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト仕様書" sheetId="2" r:id="rId1"/>
@@ -1096,10 +1096,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>localhost:1002</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>処理</t>
     <rPh sb="0" eb="2">
       <t>ショリ</t>
@@ -1162,6 +1158,10 @@
     <rPh sb="32" eb="34">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">がめんID </t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1417,226 +1417,6 @@
   <dxfs count="118">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1834,6 +1614,226 @@
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2856,19 +2856,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A40D1CE2-63A6-4CC9-B84D-CE61FFC52218}" name="テーブル13" displayName="テーブル13" ref="C6:J81" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A40D1CE2-63A6-4CC9-B84D-CE61FFC52218}" name="テーブル13" displayName="テーブル13" ref="C6:J81" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="C6:J81" xr:uid="{A40D1CE2-63A6-4CC9-B84D-CE61FFC52218}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D7AE7693-3D25-4CA4-811B-C75D6F546B7A}" name="No." dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{D7AE7693-3D25-4CA4-811B-C75D6F546B7A}" name="No." dataDxfId="7">
       <calculatedColumnFormula>ROW()-6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{93F29F12-270F-46CF-B4CC-DD59139801F9}" name="区分" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{81D7183A-1C9C-44EF-93FE-9AA7655142CE}" name="テスト項目" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{F3758BC9-97BE-45A1-903F-E0D8E58E0C9B}" name="1" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{85FEC416-2044-433D-B5B6-00DD8DA98BDA}" name="2" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{153B2A5A-9BA0-4C56-B665-046B614E8766}" name="3" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{B1003870-4A85-4F66-A64F-9E80BA8C5D6D}" name="4" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{FE67415E-33C6-4162-825B-3BEE7D63B112}" name="5" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{93F29F12-270F-46CF-B4CC-DD59139801F9}" name="区分" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{81D7183A-1C9C-44EF-93FE-9AA7655142CE}" name="テスト項目" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{F3758BC9-97BE-45A1-903F-E0D8E58E0C9B}" name="1" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{85FEC416-2044-433D-B5B6-00DD8DA98BDA}" name="2" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{153B2A5A-9BA0-4C56-B665-046B614E8766}" name="3" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{B1003870-4A85-4F66-A64F-9E80BA8C5D6D}" name="4" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{FE67415E-33C6-4162-825B-3BEE7D63B112}" name="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="エプコット" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3143,8 +3143,8 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="15" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>5</v>
@@ -3260,7 +3260,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -3279,7 +3279,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -3295,10 +3295,10 @@
         <v>46</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -3332,7 +3332,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -3351,7 +3351,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -3370,7 +3370,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -3389,7 +3389,7 @@
         <v>68</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -3408,7 +3408,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -3427,7 +3427,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -3446,7 +3446,7 @@
         <v>20</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -3465,7 +3465,7 @@
         <v>21</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -3484,7 +3484,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -3503,7 +3503,7 @@
         <v>23</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -3522,7 +3522,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -3541,7 +3541,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -3560,7 +3560,7 @@
         <v>26</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -3579,7 +3579,7 @@
         <v>45</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -3613,7 +3613,7 @@
         <v>28</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -3632,7 +3632,7 @@
         <v>29</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -3651,7 +3651,7 @@
         <v>30</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -3670,7 +3670,7 @@
         <v>31</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -3704,7 +3704,7 @@
         <v>33</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -3723,7 +3723,7 @@
         <v>34</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -3742,7 +3742,7 @@
         <v>35</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -3761,7 +3761,7 @@
         <v>36</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -3780,7 +3780,7 @@
         <v>37</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -3799,7 +3799,7 @@
         <v>38</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -3818,7 +3818,7 @@
         <v>39</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -3837,7 +3837,7 @@
         <v>40</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -3856,7 +3856,7 @@
         <v>41</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
@@ -3875,7 +3875,7 @@
         <v>30</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -3894,7 +3894,7 @@
         <v>71</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -3913,7 +3913,7 @@
         <v>70</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -3932,7 +3932,7 @@
         <v>65</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -3966,7 +3966,7 @@
         <v>43</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -3985,7 +3985,7 @@
         <v>34</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -4004,7 +4004,7 @@
         <v>74</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -4023,7 +4023,7 @@
         <v>36</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -4042,7 +4042,7 @@
         <v>37</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
@@ -4061,7 +4061,7 @@
         <v>38</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -4080,7 +4080,7 @@
         <v>39</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
@@ -4099,7 +4099,7 @@
         <v>40</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
@@ -4118,7 +4118,7 @@
         <v>41</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -4137,7 +4137,7 @@
         <v>44</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
@@ -4156,7 +4156,7 @@
         <v>73</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -4175,7 +4175,7 @@
         <v>66</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
@@ -4197,19 +4197,19 @@
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
     </row>
-    <row r="59" spans="3:10" ht="31.5">
+    <row r="59" spans="3:10">
       <c r="C59" s="8">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E59" s="18" t="s">
         <v>57</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
@@ -4222,13 +4222,13 @@
         <v>54</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>50</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
@@ -4247,7 +4247,7 @@
         <v>51</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
@@ -4266,7 +4266,7 @@
         <v>52</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
@@ -4285,7 +4285,7 @@
         <v>53</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
@@ -4304,7 +4304,7 @@
         <v>54</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
@@ -4323,7 +4323,7 @@
         <v>56</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
@@ -4342,7 +4342,7 @@
         <v>55</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
@@ -4361,7 +4361,7 @@
         <v>58</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
@@ -4395,7 +4395,7 @@
         <v>59</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
@@ -4414,7 +4414,7 @@
         <v>60</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
@@ -4433,7 +4433,7 @@
         <v>61</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
@@ -4452,7 +4452,7 @@
         <v>62</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
@@ -4471,7 +4471,7 @@
         <v>63</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
@@ -4490,7 +4490,7 @@
         <v>64</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
@@ -4506,10 +4506,10 @@
         <v>11</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
@@ -4525,10 +4525,10 @@
         <v>11</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
@@ -4953,82 +4953,82 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F67">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
